--- a/FuseLinks/Elos_Consumidor.xlsx
+++ b/FuseLinks/Elos_Consumidor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M155"/>
+  <dimension ref="A1:O155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,50 +451,60 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Fusivel Isolador</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Fusivel Consumidor</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Tempo Abertura Fase A Isolador</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Corrente Fase A Isolador</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Tempo Abertura Fase B Isolador</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Corrente Fase B Isolador</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Tempo Abertura Fase C Isolador</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Corrente Fase C Isolador</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Tempo Abertura Fase A Consumidor</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Corrente Fase A Consumidor</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Tempo Abertura Fase B Consumidor</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Corrente Fase B Consumidor</t>
         </is>
@@ -518,11 +528,13 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
+          <t>1H</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -554,6 +566,14 @@
         </is>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -575,11 +595,13 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
+          <t>1H</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -611,6 +633,14 @@
         </is>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -632,11 +662,13 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
+          <t>1H</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -668,6 +700,14 @@
         </is>
       </c>
       <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -689,11 +729,13 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
+          <t>1H</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -725,6 +767,14 @@
         </is>
       </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -746,11 +796,13 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
+          <t>1H</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -782,6 +834,14 @@
         </is>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -803,11 +863,13 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
+          <t>1H</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -839,6 +901,14 @@
         </is>
       </c>
       <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -860,11 +930,13 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
+          <t>1H</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -896,6 +968,14 @@
         </is>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -917,11 +997,13 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
+          <t>1H</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -953,6 +1035,14 @@
         </is>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -974,11 +1064,13 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
+          <t>1H</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -1010,6 +1102,14 @@
         </is>
       </c>
       <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1031,11 +1131,13 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
+          <t>1H</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -1067,6 +1169,14 @@
         </is>
       </c>
       <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1088,11 +1198,13 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
+          <t>1H</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1124,6 +1236,14 @@
         </is>
       </c>
       <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1145,11 +1265,13 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
+          <t>1H</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1181,6 +1303,14 @@
         </is>
       </c>
       <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1202,11 +1332,13 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
+          <t>1H</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1238,6 +1370,14 @@
         </is>
       </c>
       <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1259,11 +1399,13 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
+          <t>1H</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1295,6 +1437,14 @@
         </is>
       </c>
       <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1316,11 +1466,13 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
+          <t>1H</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1352,6 +1504,14 @@
         </is>
       </c>
       <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1373,11 +1533,13 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
+          <t>1H</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1409,6 +1571,14 @@
         </is>
       </c>
       <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1430,11 +1600,13 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
+          <t>1H</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1466,6 +1638,14 @@
         </is>
       </c>
       <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1487,11 +1667,13 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
+          <t>1H</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1523,6 +1705,14 @@
         </is>
       </c>
       <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1544,11 +1734,13 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
+          <t>1H</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1580,6 +1772,14 @@
         </is>
       </c>
       <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1601,11 +1801,13 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
+          <t>1H</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1637,6 +1839,14 @@
         </is>
       </c>
       <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1658,11 +1868,13 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
+          <t>1H</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1694,6 +1906,14 @@
         </is>
       </c>
       <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1715,11 +1935,13 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
+          <t>1H</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1751,6 +1973,14 @@
         </is>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1772,11 +2002,13 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1808,6 +2040,14 @@
         </is>
       </c>
       <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1829,11 +2069,13 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1865,6 +2107,14 @@
         </is>
       </c>
       <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1886,11 +2136,13 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1922,6 +2174,14 @@
         </is>
       </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1943,11 +2203,13 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1979,6 +2241,14 @@
         </is>
       </c>
       <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2000,11 +2270,13 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -2036,6 +2308,14 @@
         </is>
       </c>
       <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2057,11 +2337,13 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -2093,6 +2375,14 @@
         </is>
       </c>
       <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2114,11 +2404,13 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E30" t="n">
-        <v>0</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -2150,6 +2442,14 @@
         </is>
       </c>
       <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2171,11 +2471,13 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -2207,6 +2509,14 @@
         </is>
       </c>
       <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2228,11 +2538,13 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -2264,6 +2576,14 @@
         </is>
       </c>
       <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2285,11 +2605,13 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E33" t="n">
-        <v>0</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -2321,6 +2643,14 @@
         </is>
       </c>
       <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2342,11 +2672,13 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -2378,6 +2710,14 @@
         </is>
       </c>
       <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2399,11 +2739,13 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E35" t="n">
-        <v>14.1447</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -2421,18 +2763,26 @@
       <c r="I35" t="n">
         <v>14.1447</v>
       </c>
-      <c r="J35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>14.1447</v>
+      </c>
+      <c r="L35" t="n">
         <v>3.65392</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>16.0818</v>
       </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2454,11 +2804,13 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E36" t="n">
-        <v>12.5058</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -2476,18 +2828,26 @@
       <c r="I36" t="n">
         <v>12.5058</v>
       </c>
-      <c r="J36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>12.5058</v>
+      </c>
+      <c r="L36" t="n">
         <v>3.65388</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>16.0819</v>
       </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2509,11 +2869,13 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E37" t="n">
-        <v>14.1598</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -2531,18 +2893,26 @@
       <c r="I37" t="n">
         <v>14.1598</v>
       </c>
-      <c r="J37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>14.1598</v>
+      </c>
+      <c r="L37" t="n">
         <v>3.65392</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>16.0818</v>
       </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2564,11 +2934,13 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E38" t="n">
-        <v>12.5651</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -2586,18 +2958,26 @@
       <c r="I38" t="n">
         <v>12.5651</v>
       </c>
-      <c r="J38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>12.5651</v>
+      </c>
+      <c r="L38" t="n">
         <v>3.65388</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>16.0819</v>
       </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2619,11 +2999,13 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E39" t="n">
-        <v>0</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -2655,6 +3037,14 @@
         </is>
       </c>
       <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2676,11 +3066,13 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -2712,6 +3104,14 @@
         </is>
       </c>
       <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2733,11 +3133,13 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E41" t="n">
-        <v>13.0115</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -2761,14 +3163,22 @@
         </is>
       </c>
       <c r="K41" t="n">
+        <v>13.0115</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
         <v>12.7323</v>
       </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2790,11 +3200,13 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E42" t="n">
-        <v>0</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -2826,6 +3238,14 @@
         </is>
       </c>
       <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2847,11 +3267,13 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E43" t="n">
-        <v>0</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -2883,6 +3305,14 @@
         </is>
       </c>
       <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2904,11 +3334,13 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E44" t="n">
-        <v>13.0253</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -2932,14 +3364,22 @@
         </is>
       </c>
       <c r="K44" t="n">
+        <v>13.0253</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
         <v>12.7287</v>
       </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2961,11 +3401,13 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E45" t="n">
-        <v>0</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -2997,6 +3439,14 @@
         </is>
       </c>
       <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3018,11 +3468,13 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E46" t="n">
-        <v>18.5567</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -3040,18 +3492,26 @@
       <c r="I46" t="n">
         <v>18.5567</v>
       </c>
-      <c r="J46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>18.5567</v>
+      </c>
+      <c r="L46" t="n">
         <v>2.11016</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>20.8591</v>
       </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O46" t="n">
         <v>14.0445</v>
       </c>
     </row>
@@ -3073,11 +3533,13 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E47" t="n">
-        <v>16.0776</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -3095,18 +3557,26 @@
       <c r="I47" t="n">
         <v>16.0776</v>
       </c>
-      <c r="J47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>16.0776</v>
+      </c>
+      <c r="L47" t="n">
         <v>2.11013</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>20.8592</v>
       </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3128,11 +3598,13 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E48" t="n">
-        <v>18.5686</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -3150,18 +3622,26 @@
       <c r="I48" t="n">
         <v>18.5686</v>
       </c>
-      <c r="J48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>18.5686</v>
+      </c>
+      <c r="L48" t="n">
         <v>2.11016</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>20.8591</v>
       </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O48" t="n">
         <v>14.0481</v>
       </c>
     </row>
@@ -3183,11 +3663,13 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E49" t="n">
-        <v>16.1274</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -3205,18 +3687,26 @@
       <c r="I49" t="n">
         <v>16.1274</v>
       </c>
-      <c r="J49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>16.1274</v>
+      </c>
+      <c r="L49" t="n">
         <v>2.11013</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>20.8592</v>
       </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3238,11 +3728,13 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -3266,14 +3758,22 @@
         </is>
       </c>
       <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
         <v>13.1092</v>
       </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3295,11 +3795,13 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E51" t="n">
-        <v>0</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -3331,6 +3833,14 @@
         </is>
       </c>
       <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3350,11 +3860,15 @@
           <t>BT Consumidor</t>
         </is>
       </c>
-      <c r="D52" t="n">
-        <v>3.12375</v>
-      </c>
-      <c r="E52" t="n">
-        <v>17.3064</v>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
       </c>
       <c r="F52" t="n">
         <v>3.12375</v>
@@ -3368,20 +3882,26 @@
       <c r="I52" t="n">
         <v>17.3064</v>
       </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="J52" t="n">
+        <v>3.12375</v>
       </c>
       <c r="K52" t="n">
+        <v>17.3064</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
         <v>17.0124</v>
       </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O52" t="n">
         <v>13.0764</v>
       </c>
     </row>
@@ -3403,11 +3923,13 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E53" t="n">
-        <v>0</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -3439,6 +3961,14 @@
         </is>
       </c>
       <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3460,11 +3990,13 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E54" t="n">
-        <v>0</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -3488,14 +4020,22 @@
         </is>
       </c>
       <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
         <v>13.1173</v>
       </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3515,11 +4055,15 @@
           <t>BT Consumidor</t>
         </is>
       </c>
-      <c r="D55" t="n">
-        <v>3.11927</v>
-      </c>
-      <c r="E55" t="n">
-        <v>17.3181</v>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
       </c>
       <c r="F55" t="n">
         <v>3.11927</v>
@@ -3533,20 +4077,26 @@
       <c r="I55" t="n">
         <v>17.3181</v>
       </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="J55" t="n">
+        <v>3.11927</v>
       </c>
       <c r="K55" t="n">
+        <v>17.3181</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
         <v>17.0088</v>
       </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O55" t="n">
         <v>13.0933</v>
       </c>
     </row>
@@ -3568,11 +4118,13 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E56" t="n">
-        <v>0</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -3604,6 +4156,14 @@
         </is>
       </c>
       <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3625,11 +4185,13 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E57" t="n">
-        <v>19.3513</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -3647,18 +4209,26 @@
       <c r="I57" t="n">
         <v>19.3513</v>
       </c>
-      <c r="J57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>19.3513</v>
+      </c>
+      <c r="L57" t="n">
         <v>1.92991</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>21.7736</v>
       </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O57" t="n">
         <v>14.5631</v>
       </c>
     </row>
@@ -3680,11 +4250,13 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E58" t="n">
-        <v>16.8804</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -3702,18 +4274,26 @@
       <c r="I58" t="n">
         <v>16.8804</v>
       </c>
-      <c r="J58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>16.8804</v>
+      </c>
+      <c r="L58" t="n">
         <v>1.92988</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>21.7738</v>
       </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3735,11 +4315,13 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E59" t="n">
-        <v>19.364</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -3757,18 +4339,26 @@
       <c r="I59" t="n">
         <v>19.364</v>
       </c>
-      <c r="J59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>19.364</v>
+      </c>
+      <c r="L59" t="n">
         <v>1.92991</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>21.7736</v>
       </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O59" t="n">
         <v>14.5676</v>
       </c>
     </row>
@@ -3790,11 +4380,13 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E60" t="n">
-        <v>16.9317</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -3812,18 +4404,26 @@
       <c r="I60" t="n">
         <v>16.9317</v>
       </c>
-      <c r="J60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>16.9317</v>
+      </c>
+      <c r="L60" t="n">
         <v>1.92987</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>21.7738</v>
       </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3845,11 +4445,13 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E61" t="n">
-        <v>0</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -3873,14 +4475,22 @@
         </is>
       </c>
       <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
         <v>13.6484</v>
       </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3902,11 +4512,13 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E62" t="n">
-        <v>0</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -3938,6 +4550,14 @@
         </is>
       </c>
       <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3957,11 +4577,15 @@
           <t>BT Consumidor</t>
         </is>
       </c>
-      <c r="D63" t="n">
-        <v>2.89783</v>
-      </c>
-      <c r="E63" t="n">
-        <v>17.9307</v>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
       </c>
       <c r="F63" t="n">
         <v>2.89783</v>
@@ -3975,20 +4599,26 @@
       <c r="I63" t="n">
         <v>17.9307</v>
       </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="J63" t="n">
+        <v>2.89783</v>
       </c>
       <c r="K63" t="n">
+        <v>17.9307</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
         <v>17.5898</v>
       </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O63" t="n">
         <v>13.6002</v>
       </c>
     </row>
@@ -4010,11 +4640,13 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E64" t="n">
-        <v>0</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -4046,6 +4678,14 @@
         </is>
       </c>
       <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4067,11 +4707,13 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E65" t="n">
-        <v>0</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -4095,14 +4737,22 @@
         </is>
       </c>
       <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
         <v>13.6564</v>
       </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4122,11 +4772,15 @@
           <t>BT Consumidor</t>
         </is>
       </c>
-      <c r="D66" t="n">
-        <v>2.89365</v>
-      </c>
-      <c r="E66" t="n">
-        <v>17.9429</v>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
       </c>
       <c r="F66" t="n">
         <v>2.89365</v>
@@ -4140,20 +4794,26 @@
       <c r="I66" t="n">
         <v>17.9429</v>
       </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="J66" t="n">
+        <v>2.89365</v>
       </c>
       <c r="K66" t="n">
+        <v>17.9429</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
         <v>17.5866</v>
       </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O66" t="n">
         <v>13.6179</v>
       </c>
     </row>
@@ -4175,11 +4835,13 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E67" t="n">
-        <v>0</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -4211,6 +4873,14 @@
         </is>
       </c>
       <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4232,11 +4902,13 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E68" t="n">
-        <v>28.1438</v>
+          <t>3H</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>3H</t>
+        </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -4260,14 +4932,22 @@
         </is>
       </c>
       <c r="K68" t="n">
+        <v>28.1438</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
         <v>31.2836</v>
       </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O68" t="n">
         <v>21.889</v>
       </c>
     </row>
@@ -4289,11 +4969,13 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E69" t="n">
-        <v>24.2776</v>
+          <t>3H</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>3H</t>
+        </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -4317,14 +4999,22 @@
         </is>
       </c>
       <c r="K69" t="n">
+        <v>24.2776</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
         <v>31.2841</v>
       </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O69" t="n">
         <v>11.536</v>
       </c>
     </row>
@@ -4346,11 +5036,13 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E70" t="n">
-        <v>28.1535</v>
+          <t>3H</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>3H</t>
+        </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -4374,14 +5066,22 @@
         </is>
       </c>
       <c r="K70" t="n">
+        <v>28.1535</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
         <v>31.2836</v>
       </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O70" t="n">
         <v>21.8904</v>
       </c>
     </row>
@@ -4403,11 +5103,13 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E71" t="n">
-        <v>24.3156</v>
+          <t>3H</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>3H</t>
+        </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -4431,14 +5133,22 @@
         </is>
       </c>
       <c r="K71" t="n">
+        <v>24.3156</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
         <v>31.2841</v>
       </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O71" t="n">
         <v>11.5597</v>
       </c>
     </row>
@@ -4460,11 +5170,13 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E72" t="n">
-        <v>0</v>
+          <t>3H</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>3H</t>
+        </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -4488,14 +5200,22 @@
         </is>
       </c>
       <c r="K72" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
         <v>20.1017</v>
       </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4517,11 +5237,13 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E73" t="n">
-        <v>0</v>
+          <t>3H</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>3H</t>
+        </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -4553,6 +5275,14 @@
         </is>
       </c>
       <c r="M73" t="n">
+        <v>0</v>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4574,11 +5304,13 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E74" t="n">
-        <v>26.3943</v>
+          <t>3H</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>3H</t>
+        </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -4602,14 +5334,22 @@
         </is>
       </c>
       <c r="K74" t="n">
+        <v>26.3943</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
         <v>25.9476</v>
       </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O74" t="n">
         <v>20.1089</v>
       </c>
     </row>
@@ -4631,11 +5371,13 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E75" t="n">
-        <v>0</v>
+          <t>3H</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>3H</t>
+        </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -4667,6 +5409,14 @@
         </is>
       </c>
       <c r="M75" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4688,11 +5438,13 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E76" t="n">
-        <v>0</v>
+          <t>3H</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>3H</t>
+        </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -4716,14 +5468,22 @@
         </is>
       </c>
       <c r="K76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
         <v>20.1082</v>
       </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4745,11 +5505,13 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E77" t="n">
-        <v>26.4042</v>
+          <t>3H</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>3H</t>
+        </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -4773,14 +5535,22 @@
         </is>
       </c>
       <c r="K77" t="n">
+        <v>26.4042</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
         <v>25.9454</v>
       </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O77" t="n">
         <v>20.1205</v>
       </c>
     </row>
@@ -4802,11 +5572,13 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E78" t="n">
-        <v>0</v>
+          <t>3H</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>3H</t>
+        </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -4838,6 +5610,14 @@
         </is>
       </c>
       <c r="M78" t="n">
+        <v>0</v>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4859,11 +5639,13 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E79" t="n">
-        <v>34.6895</v>
+          <t>5H</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>5H</t>
+        </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -4881,18 +5663,26 @@
       <c r="I79" t="n">
         <v>34.6895</v>
       </c>
-      <c r="J79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>34.6895</v>
+      </c>
+      <c r="L79" t="n">
         <v>0.579887</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>38.2699</v>
       </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O79" t="n">
         <v>27.4507</v>
       </c>
     </row>
@@ -4914,11 +5704,13 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E80" t="n">
-        <v>29.8079</v>
+          <t>5H</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>5H</t>
+        </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -4936,18 +5728,26 @@
       <c r="I80" t="n">
         <v>29.8079</v>
       </c>
-      <c r="J80" t="n">
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>29.8079</v>
+      </c>
+      <c r="L80" t="n">
         <v>0.579857</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>38.2706</v>
       </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O80" t="n">
         <v>14.5588</v>
       </c>
     </row>
@@ -4969,11 +5769,13 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E81" t="n">
-        <v>34.6977</v>
+          <t>5H</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>5H</t>
+        </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -4991,18 +5793,26 @@
       <c r="I81" t="n">
         <v>34.6977</v>
       </c>
-      <c r="J81" t="n">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>34.6977</v>
+      </c>
+      <c r="L81" t="n">
         <v>0.579886</v>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
         <v>38.2699</v>
       </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O81" t="n">
         <v>27.4505</v>
       </c>
     </row>
@@ -5024,11 +5834,13 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E82" t="n">
-        <v>29.8376</v>
+          <t>5H</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>5H</t>
+        </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -5046,18 +5858,26 @@
       <c r="I82" t="n">
         <v>29.8376</v>
       </c>
-      <c r="J82" t="n">
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>29.8376</v>
+      </c>
+      <c r="L82" t="n">
         <v>0.579856</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
         <v>38.2706</v>
       </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O82" t="n">
         <v>14.565</v>
       </c>
     </row>
@@ -5079,11 +5899,13 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E83" t="n">
-        <v>12.0621</v>
+          <t>5H</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>5H</t>
+        </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -5107,14 +5929,22 @@
         </is>
       </c>
       <c r="K83" t="n">
+        <v>12.0621</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
         <v>25.0268</v>
       </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5136,11 +5966,13 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E84" t="n">
-        <v>0</v>
+          <t>5H</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>5H</t>
+        </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -5172,6 +6004,14 @@
         </is>
       </c>
       <c r="M84" t="n">
+        <v>0</v>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5191,11 +6031,15 @@
           <t>BT Consumidor</t>
         </is>
       </c>
-      <c r="D85" t="n">
-        <v>0.87886</v>
-      </c>
-      <c r="E85" t="n">
-        <v>32.6759</v>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>5H</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>5H</t>
+        </is>
       </c>
       <c r="F85" t="n">
         <v>0.87886</v>
@@ -5209,20 +6053,26 @@
       <c r="I85" t="n">
         <v>32.6759</v>
       </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="J85" t="n">
+        <v>0.87886</v>
       </c>
       <c r="K85" t="n">
+        <v>32.6759</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
         <v>32.1008</v>
       </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O85" t="n">
         <v>25.0229</v>
       </c>
     </row>
@@ -5244,11 +6094,13 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E86" t="n">
-        <v>0</v>
+          <t>5H</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>5H</t>
+        </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -5280,6 +6132,14 @@
         </is>
       </c>
       <c r="M86" t="n">
+        <v>0</v>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5301,11 +6161,13 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E87" t="n">
-        <v>12.0697</v>
+          <t>5H</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>5H</t>
+        </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -5329,14 +6191,22 @@
         </is>
       </c>
       <c r="K87" t="n">
+        <v>12.0697</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
         <v>25.032</v>
       </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5356,11 +6226,15 @@
           <t>BT Consumidor</t>
         </is>
       </c>
-      <c r="D88" t="n">
-        <v>0.87823</v>
-      </c>
-      <c r="E88" t="n">
-        <v>32.6845</v>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>5H</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>5H</t>
+        </is>
       </c>
       <c r="F88" t="n">
         <v>0.87823</v>
@@ -5374,20 +6248,26 @@
       <c r="I88" t="n">
         <v>32.6845</v>
       </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="J88" t="n">
+        <v>0.87823</v>
       </c>
       <c r="K88" t="n">
+        <v>32.6845</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
         <v>32.0994</v>
       </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O88" t="n">
         <v>25.0309</v>
       </c>
     </row>
@@ -5409,11 +6289,13 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E89" t="n">
-        <v>0</v>
+          <t>5H</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>5H</t>
+        </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -5445,6 +6327,14 @@
         </is>
       </c>
       <c r="M89" t="n">
+        <v>0</v>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5466,11 +6356,13 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E90" t="n">
-        <v>37.5829</v>
+          <t>5H</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>5H</t>
+        </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -5488,16 +6380,24 @@
       <c r="I90" t="n">
         <v>37.5829</v>
       </c>
-      <c r="J90" t="n">
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>37.5829</v>
+      </c>
+      <c r="L90" t="n">
         <v>0.477498</v>
       </c>
-      <c r="K90" t="n">
+      <c r="M90" t="n">
         <v>41.3275</v>
       </c>
-      <c r="L90" t="n">
+      <c r="N90" t="n">
         <v>1.12103</v>
       </c>
-      <c r="M90" t="n">
+      <c r="O90" t="n">
         <v>29.9144</v>
       </c>
     </row>
@@ -5519,11 +6419,13 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E91" t="n">
-        <v>32.2446</v>
+          <t>5H</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>5H</t>
+        </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -5541,18 +6443,26 @@
       <c r="I91" t="n">
         <v>32.2446</v>
       </c>
-      <c r="J91" t="n">
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>32.2446</v>
+      </c>
+      <c r="L91" t="n">
         <v>0.477471</v>
       </c>
-      <c r="K91" t="n">
+      <c r="M91" t="n">
         <v>41.3285</v>
       </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O91" t="n">
         <v>10.2088</v>
       </c>
     </row>
@@ -5574,11 +6484,13 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E92" t="n">
-        <v>37.5905</v>
+          <t>5H</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>5H</t>
+        </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -5596,16 +6508,24 @@
       <c r="I92" t="n">
         <v>37.5905</v>
       </c>
-      <c r="J92" t="n">
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>37.5905</v>
+      </c>
+      <c r="L92" t="n">
         <v>0.477498</v>
       </c>
-      <c r="K92" t="n">
+      <c r="M92" t="n">
         <v>41.3275</v>
       </c>
-      <c r="L92" t="n">
+      <c r="N92" t="n">
         <v>1.12111</v>
       </c>
-      <c r="M92" t="n">
+      <c r="O92" t="n">
         <v>29.9136</v>
       </c>
     </row>
@@ -5627,11 +6547,13 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E93" t="n">
-        <v>32.2708</v>
+          <t>5H</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>5H</t>
+        </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -5649,18 +6571,26 @@
       <c r="I93" t="n">
         <v>32.2708</v>
       </c>
-      <c r="J93" t="n">
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>32.2708</v>
+      </c>
+      <c r="L93" t="n">
         <v>0.477471</v>
       </c>
-      <c r="K93" t="n">
+      <c r="M93" t="n">
         <v>41.3285</v>
       </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O93" t="n">
         <v>10.078</v>
       </c>
     </row>
@@ -5682,11 +6612,13 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E94" t="n">
-        <v>13.3592</v>
+          <t>5H</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>5H</t>
+        </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -5710,14 +6642,22 @@
         </is>
       </c>
       <c r="K94" t="n">
+        <v>13.3592</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
         <v>27.2335</v>
       </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5739,11 +6679,13 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E95" t="n">
-        <v>0</v>
+          <t>5H</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>5H</t>
+        </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -5775,6 +6717,14 @@
         </is>
       </c>
       <c r="M95" t="n">
+        <v>0</v>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5794,11 +6744,15 @@
           <t>BT Consumidor</t>
         </is>
       </c>
-      <c r="D96" t="n">
-        <v>0.709353</v>
-      </c>
-      <c r="E96" t="n">
-        <v>35.4085</v>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>5H</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>5H</t>
+        </is>
       </c>
       <c r="F96" t="n">
         <v>0.709353</v>
@@ -5812,20 +6766,26 @@
       <c r="I96" t="n">
         <v>35.4085</v>
       </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="J96" t="n">
+        <v>0.709353</v>
       </c>
       <c r="K96" t="n">
+        <v>35.4085</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
         <v>34.8439</v>
       </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O96" t="n">
         <v>27.1844</v>
       </c>
     </row>
@@ -5847,11 +6807,13 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E97" t="n">
-        <v>0</v>
+          <t>5H</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>5H</t>
+        </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -5883,6 +6845,14 @@
         </is>
       </c>
       <c r="M97" t="n">
+        <v>0</v>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5904,11 +6874,13 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E98" t="n">
-        <v>13.3647</v>
+          <t>5H</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>5H</t>
+        </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -5932,14 +6904,22 @@
         </is>
       </c>
       <c r="K98" t="n">
+        <v>13.3647</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
         <v>27.2381</v>
       </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5959,11 +6939,15 @@
           <t>BT Consumidor</t>
         </is>
       </c>
-      <c r="D99" t="n">
-        <v>0.708929</v>
-      </c>
-      <c r="E99" t="n">
-        <v>35.4166</v>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>5H</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>5H</t>
+        </is>
       </c>
       <c r="F99" t="n">
         <v>0.708929</v>
@@ -5977,20 +6961,26 @@
       <c r="I99" t="n">
         <v>35.4166</v>
       </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="J99" t="n">
+        <v>0.708929</v>
       </c>
       <c r="K99" t="n">
+        <v>35.4166</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
         <v>34.8427</v>
       </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O99" t="n">
         <v>27.1908</v>
       </c>
     </row>
@@ -6012,11 +7002,13 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E100" t="n">
-        <v>0</v>
+          <t>5H</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>5H</t>
+        </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -6048,6 +7040,14 @@
         </is>
       </c>
       <c r="M100" t="n">
+        <v>0</v>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6069,11 +7069,13 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E101" t="n">
-        <v>14.9567</v>
+          <t>6K</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>6K</t>
+        </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -6097,14 +7099,22 @@
         </is>
       </c>
       <c r="K101" t="n">
+        <v>14.9567</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
         <v>14.9774</v>
       </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O101" t="n">
         <v>14.9739</v>
       </c>
     </row>
@@ -6126,11 +7136,13 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E102" t="n">
-        <v>14.95669</v>
+          <t>6K</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>6K</t>
+        </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -6154,14 +7166,22 @@
         </is>
       </c>
       <c r="K102" t="n">
+        <v>14.95669</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
         <v>14.97737</v>
       </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O102" t="n">
         <v>14.97388</v>
       </c>
     </row>
@@ -6183,11 +7203,13 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E103" t="n">
-        <v>14.95669</v>
+          <t>6K</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>6K</t>
+        </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -6211,14 +7233,22 @@
         </is>
       </c>
       <c r="K103" t="n">
+        <v>14.95669</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
         <v>14.97737</v>
       </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O103" t="n">
         <v>14.97388</v>
       </c>
     </row>
@@ -6240,11 +7270,13 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E104" t="n">
-        <v>14.95669</v>
+          <t>6K</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>6K</t>
+        </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -6268,14 +7300,22 @@
         </is>
       </c>
       <c r="K104" t="n">
+        <v>14.95669</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
         <v>14.97737</v>
       </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O104" t="n">
         <v>14.97388</v>
       </c>
     </row>
@@ -6297,11 +7337,13 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E105" t="n">
-        <v>0.0120364</v>
+          <t>6K</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>6K</t>
+        </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -6325,12 +7367,20 @@
         </is>
       </c>
       <c r="K105" t="n">
+        <v>0.0120364</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
         <v>14.97737</v>
       </c>
-      <c r="L105" t="n">
+      <c r="N105" t="n">
         <v>15.06799</v>
       </c>
-      <c r="M105" t="n">
+      <c r="O105" t="n">
         <v>14.97388</v>
       </c>
     </row>
@@ -6352,11 +7402,13 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E106" t="n">
-        <v>0.01203473</v>
+          <t>6K</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>6K</t>
+        </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -6380,12 +7432,20 @@
         </is>
       </c>
       <c r="K106" t="n">
+        <v>0.01203473</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
         <v>14.97737</v>
       </c>
-      <c r="L106" t="n">
+      <c r="N106" t="n">
         <v>15.068</v>
       </c>
-      <c r="M106" t="n">
+      <c r="O106" t="n">
         <v>14.97388</v>
       </c>
     </row>
@@ -6407,11 +7467,13 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E107" t="n">
-        <v>14.95669</v>
+          <t>6K</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>6K</t>
+        </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -6435,14 +7497,22 @@
         </is>
       </c>
       <c r="K107" t="n">
+        <v>14.95669</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
         <v>14.97737</v>
       </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O107" t="n">
         <v>14.97388</v>
       </c>
     </row>
@@ -6464,11 +7534,13 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E108" t="n">
-        <v>0.02391996</v>
+          <t>6K</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>6K</t>
+        </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -6492,14 +7564,22 @@
         </is>
       </c>
       <c r="K108" t="n">
+        <v>0.02391996</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
         <v>14.97737</v>
       </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O108" t="n">
         <v>14.97388</v>
       </c>
     </row>
@@ -6521,11 +7601,13 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E109" t="n">
-        <v>0.01203627</v>
+          <t>6K</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>6K</t>
+        </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -6549,12 +7631,20 @@
         </is>
       </c>
       <c r="K109" t="n">
+        <v>0.01203627</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
         <v>14.97737</v>
       </c>
-      <c r="L109" t="n">
+      <c r="N109" t="n">
         <v>15.068</v>
       </c>
-      <c r="M109" t="n">
+      <c r="O109" t="n">
         <v>14.97388</v>
       </c>
     </row>
@@ -6576,11 +7666,13 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E110" t="n">
-        <v>14.95669</v>
+          <t>6K</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>6K</t>
+        </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -6604,14 +7696,22 @@
         </is>
       </c>
       <c r="K110" t="n">
+        <v>14.95669</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
         <v>14.97737</v>
       </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O110" t="n">
         <v>14.97388</v>
       </c>
     </row>
@@ -6633,11 +7733,13 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E111" t="n">
-        <v>0.01203474</v>
+          <t>6K</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>6K</t>
+        </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -6661,12 +7763,20 @@
         </is>
       </c>
       <c r="K111" t="n">
+        <v>0.01203474</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
         <v>14.97737</v>
       </c>
-      <c r="L111" t="n">
+      <c r="N111" t="n">
         <v>15.06799</v>
       </c>
-      <c r="M111" t="n">
+      <c r="O111" t="n">
         <v>14.97388</v>
       </c>
     </row>
@@ -6688,11 +7798,13 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E112" t="n">
-        <v>19.08414</v>
+          <t>10K</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>10K</t>
+        </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -6716,14 +7828,22 @@
         </is>
       </c>
       <c r="K112" t="n">
+        <v>19.08414</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
         <v>19.11085</v>
       </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O112" t="n">
         <v>19.10561</v>
       </c>
     </row>
@@ -6745,11 +7865,13 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E113" t="n">
-        <v>19.08414</v>
+          <t>10K</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>10K</t>
+        </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -6773,14 +7895,22 @@
         </is>
       </c>
       <c r="K113" t="n">
+        <v>19.08414</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
         <v>19.11085</v>
       </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O113" t="n">
         <v>19.10561</v>
       </c>
     </row>
@@ -6802,11 +7932,13 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E114" t="n">
-        <v>19.08414</v>
+          <t>10K</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>10K</t>
+        </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -6830,14 +7962,22 @@
         </is>
       </c>
       <c r="K114" t="n">
+        <v>19.08414</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
         <v>19.11085</v>
       </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O114" t="n">
         <v>19.10561</v>
       </c>
     </row>
@@ -6859,11 +7999,13 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E115" t="n">
-        <v>19.08414</v>
+          <t>10K</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>10K</t>
+        </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -6887,14 +8029,22 @@
         </is>
       </c>
       <c r="K115" t="n">
+        <v>19.08414</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
         <v>19.11085</v>
       </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O115" t="n">
         <v>19.10561</v>
       </c>
     </row>
@@ -6916,11 +8066,13 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E116" t="n">
-        <v>19.08414</v>
+          <t>10K</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>10K</t>
+        </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -6944,14 +8096,22 @@
         </is>
       </c>
       <c r="K116" t="n">
+        <v>19.08414</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
         <v>19.11085</v>
       </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O116" t="n">
         <v>19.10561</v>
       </c>
     </row>
@@ -6973,11 +8133,13 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E117" t="n">
-        <v>19.08414</v>
+          <t>10K</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>10K</t>
+        </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -7001,14 +8163,22 @@
         </is>
       </c>
       <c r="K117" t="n">
+        <v>19.08414</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
         <v>19.11085</v>
       </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O117" t="n">
         <v>19.10561</v>
       </c>
     </row>
@@ -7030,11 +8200,13 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E118" t="n">
-        <v>19.08414</v>
+          <t>10K</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>10K</t>
+        </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -7058,14 +8230,22 @@
         </is>
       </c>
       <c r="K118" t="n">
+        <v>19.08414</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
         <v>19.11085</v>
       </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O118" t="n">
         <v>19.10561</v>
       </c>
     </row>
@@ -7087,11 +8267,13 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E119" t="n">
-        <v>19.08414</v>
+          <t>10K</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>10K</t>
+        </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -7115,14 +8297,22 @@
         </is>
       </c>
       <c r="K119" t="n">
+        <v>19.08414</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
         <v>19.11085</v>
       </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O119" t="n">
         <v>19.10561</v>
       </c>
     </row>
@@ -7144,11 +8334,13 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E120" t="n">
-        <v>19.08414</v>
+          <t>10K</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>10K</t>
+        </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -7172,14 +8364,22 @@
         </is>
       </c>
       <c r="K120" t="n">
+        <v>19.08414</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
         <v>19.11085</v>
       </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
+      <c r="N120" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O120" t="n">
         <v>19.10561</v>
       </c>
     </row>
@@ -7201,11 +8401,13 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E121" t="n">
-        <v>19.08414</v>
+          <t>10K</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>10K</t>
+        </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -7229,14 +8431,22 @@
         </is>
       </c>
       <c r="K121" t="n">
+        <v>19.08414</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
         <v>19.11085</v>
       </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O121" t="n">
         <v>19.10561</v>
       </c>
     </row>
@@ -7258,11 +8468,13 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E122" t="n">
-        <v>19.08414</v>
+          <t>10K</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>10K</t>
+        </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
@@ -7286,14 +8498,22 @@
         </is>
       </c>
       <c r="K122" t="n">
+        <v>19.08414</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
         <v>19.11084</v>
       </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
+      <c r="N122" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O122" t="n">
         <v>19.10561</v>
       </c>
     </row>
@@ -7315,11 +8535,13 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E123" t="n">
-        <v>21.01698</v>
+          <t>10K</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>10K</t>
+        </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
@@ -7343,14 +8565,22 @@
         </is>
       </c>
       <c r="K123" t="n">
+        <v>21.01698</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
         <v>21.04655</v>
       </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
+      <c r="N123" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O123" t="n">
         <v>21.04038</v>
       </c>
     </row>
@@ -7372,11 +8602,13 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E124" t="n">
-        <v>21.01698</v>
+          <t>10K</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>10K</t>
+        </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
@@ -7400,14 +8632,22 @@
         </is>
       </c>
       <c r="K124" t="n">
+        <v>21.01698</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
         <v>21.04655</v>
       </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
+      <c r="N124" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O124" t="n">
         <v>21.04038</v>
       </c>
     </row>
@@ -7429,11 +8669,13 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E125" t="n">
-        <v>21.01698</v>
+          <t>10K</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>10K</t>
+        </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
@@ -7457,14 +8699,22 @@
         </is>
       </c>
       <c r="K125" t="n">
+        <v>21.01698</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
         <v>21.04655</v>
       </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
+      <c r="N125" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O125" t="n">
         <v>21.04038</v>
       </c>
     </row>
@@ -7486,11 +8736,13 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E126" t="n">
-        <v>21.01698</v>
+          <t>10K</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>10K</t>
+        </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
@@ -7514,14 +8766,22 @@
         </is>
       </c>
       <c r="K126" t="n">
+        <v>21.01698</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
         <v>21.04655</v>
       </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
+      <c r="N126" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O126" t="n">
         <v>21.04038</v>
       </c>
     </row>
@@ -7543,11 +8803,13 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E127" t="n">
-        <v>21.01698</v>
+          <t>10K</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>10K</t>
+        </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
@@ -7571,14 +8833,22 @@
         </is>
       </c>
       <c r="K127" t="n">
+        <v>21.01698</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
         <v>21.04655</v>
       </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
+      <c r="N127" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O127" t="n">
         <v>21.04038</v>
       </c>
     </row>
@@ -7600,11 +8870,13 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E128" t="n">
-        <v>21.01698</v>
+          <t>10K</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>10K</t>
+        </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
@@ -7628,14 +8900,22 @@
         </is>
       </c>
       <c r="K128" t="n">
+        <v>21.01698</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
         <v>21.04655</v>
       </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
+      <c r="N128" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O128" t="n">
         <v>21.04038</v>
       </c>
     </row>
@@ -7657,11 +8937,13 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E129" t="n">
-        <v>21.01698</v>
+          <t>10K</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>10K</t>
+        </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -7685,14 +8967,22 @@
         </is>
       </c>
       <c r="K129" t="n">
+        <v>21.01698</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
         <v>21.04655</v>
       </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
+      <c r="N129" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O129" t="n">
         <v>21.04038</v>
       </c>
     </row>
@@ -7714,11 +9004,13 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E130" t="n">
-        <v>21.01698</v>
+          <t>10K</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>10K</t>
+        </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
@@ -7742,14 +9034,22 @@
         </is>
       </c>
       <c r="K130" t="n">
+        <v>21.01698</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
         <v>21.04655</v>
       </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
+      <c r="N130" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O130" t="n">
         <v>21.04038</v>
       </c>
     </row>
@@ -7771,11 +9071,13 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E131" t="n">
-        <v>21.01698</v>
+          <t>10K</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>10K</t>
+        </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
@@ -7799,14 +9101,22 @@
         </is>
       </c>
       <c r="K131" t="n">
+        <v>21.01698</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
         <v>21.04655</v>
       </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
+      <c r="N131" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O131" t="n">
         <v>21.04038</v>
       </c>
     </row>
@@ -7828,11 +9138,13 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E132" t="n">
-        <v>21.01698</v>
+          <t>10K</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>10K</t>
+        </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -7856,14 +9168,22 @@
         </is>
       </c>
       <c r="K132" t="n">
+        <v>21.01698</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
         <v>21.04655</v>
       </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
+      <c r="N132" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O132" t="n">
         <v>21.04038</v>
       </c>
     </row>
@@ -7885,11 +9205,13 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E133" t="n">
-        <v>21.01698</v>
+          <t>10K</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>10K</t>
+        </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
@@ -7913,14 +9235,22 @@
         </is>
       </c>
       <c r="K133" t="n">
+        <v>21.01698</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
         <v>21.04655</v>
       </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
+      <c r="N133" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O133" t="n">
         <v>21.04038</v>
       </c>
     </row>
@@ -7942,11 +9272,13 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E134" t="n">
-        <v>22.86968</v>
+          <t>12K</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>12K</t>
+        </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
@@ -7970,14 +9302,22 @@
         </is>
       </c>
       <c r="K134" t="n">
+        <v>22.86968</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
         <v>22.90203</v>
       </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
+      <c r="N134" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O134" t="n">
         <v>22.89489</v>
       </c>
     </row>
@@ -7999,11 +9339,13 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E135" t="n">
-        <v>22.86968</v>
+          <t>12K</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>12K</t>
+        </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
@@ -8027,14 +9369,22 @@
         </is>
       </c>
       <c r="K135" t="n">
+        <v>22.86968</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
         <v>22.90203</v>
       </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
+      <c r="N135" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O135" t="n">
         <v>22.89489</v>
       </c>
     </row>
@@ -8056,11 +9406,13 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E136" t="n">
-        <v>22.86968</v>
+          <t>12K</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>12K</t>
+        </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
@@ -8084,14 +9436,22 @@
         </is>
       </c>
       <c r="K136" t="n">
+        <v>22.86968</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
         <v>22.90203</v>
       </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
+      <c r="N136" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O136" t="n">
         <v>22.89489</v>
       </c>
     </row>
@@ -8113,11 +9473,13 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E137" t="n">
-        <v>22.86968</v>
+          <t>12K</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>12K</t>
+        </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
@@ -8141,14 +9503,22 @@
         </is>
       </c>
       <c r="K137" t="n">
+        <v>22.86968</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
         <v>22.90203</v>
       </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
+      <c r="N137" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O137" t="n">
         <v>22.89489</v>
       </c>
     </row>
@@ -8170,11 +9540,13 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E138" t="n">
-        <v>22.86968</v>
+          <t>12K</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>12K</t>
+        </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
@@ -8198,14 +9570,22 @@
         </is>
       </c>
       <c r="K138" t="n">
+        <v>22.86968</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
         <v>22.90203</v>
       </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
+      <c r="N138" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O138" t="n">
         <v>22.89489</v>
       </c>
     </row>
@@ -8227,11 +9607,13 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E139" t="n">
-        <v>22.86968</v>
+          <t>12K</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>12K</t>
+        </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -8255,14 +9637,22 @@
         </is>
       </c>
       <c r="K139" t="n">
+        <v>22.86968</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
         <v>22.90203</v>
       </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
+      <c r="N139" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O139" t="n">
         <v>22.89489</v>
       </c>
     </row>
@@ -8284,11 +9674,13 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E140" t="n">
-        <v>22.86968</v>
+          <t>12K</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>12K</t>
+        </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
@@ -8312,14 +9704,22 @@
         </is>
       </c>
       <c r="K140" t="n">
+        <v>22.86968</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
         <v>22.90203</v>
       </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
+      <c r="N140" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O140" t="n">
         <v>22.89489</v>
       </c>
     </row>
@@ -8341,11 +9741,13 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E141" t="n">
-        <v>22.86968</v>
+          <t>12K</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>12K</t>
+        </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
@@ -8369,14 +9771,22 @@
         </is>
       </c>
       <c r="K141" t="n">
+        <v>22.86968</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
         <v>22.90203</v>
       </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
+      <c r="N141" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O141" t="n">
         <v>22.89489</v>
       </c>
     </row>
@@ -8398,11 +9808,13 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E142" t="n">
-        <v>22.86968</v>
+          <t>12K</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>12K</t>
+        </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
@@ -8426,14 +9838,22 @@
         </is>
       </c>
       <c r="K142" t="n">
+        <v>22.86968</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
         <v>22.90203</v>
       </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
+      <c r="N142" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O142" t="n">
         <v>22.89488</v>
       </c>
     </row>
@@ -8455,11 +9875,13 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E143" t="n">
-        <v>22.86968</v>
+          <t>12K</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>12K</t>
+        </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -8483,14 +9905,22 @@
         </is>
       </c>
       <c r="K143" t="n">
+        <v>22.86968</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
         <v>22.90203</v>
       </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
+      <c r="N143" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O143" t="n">
         <v>22.89489</v>
       </c>
     </row>
@@ -8512,11 +9942,13 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E144" t="n">
-        <v>22.86968</v>
+          <t>12K</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>12K</t>
+        </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -8540,14 +9972,22 @@
         </is>
       </c>
       <c r="K144" t="n">
+        <v>22.86968</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
         <v>22.90203</v>
       </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
+      <c r="N144" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O144" t="n">
         <v>22.89489</v>
       </c>
     </row>
@@ -8569,11 +10009,13 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E145" t="n">
-        <v>26.35354</v>
+          <t>15K</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>15K</t>
+        </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
@@ -8597,14 +10039,22 @@
         </is>
       </c>
       <c r="K145" t="n">
+        <v>26.35354</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
         <v>26.39117</v>
       </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
+      <c r="N145" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O145" t="n">
         <v>26.38202</v>
       </c>
     </row>
@@ -8626,11 +10076,13 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E146" t="n">
-        <v>26.35354</v>
+          <t>15K</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>15K</t>
+        </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
@@ -8654,14 +10106,22 @@
         </is>
       </c>
       <c r="K146" t="n">
+        <v>26.35354</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
         <v>26.39117</v>
       </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
+      <c r="N146" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O146" t="n">
         <v>26.38202</v>
       </c>
     </row>
@@ -8683,11 +10143,13 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E147" t="n">
-        <v>26.35354</v>
+          <t>15K</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>15K</t>
+        </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
@@ -8711,14 +10173,22 @@
         </is>
       </c>
       <c r="K147" t="n">
+        <v>26.35354</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
         <v>26.39117</v>
       </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
+      <c r="N147" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O147" t="n">
         <v>26.38202</v>
       </c>
     </row>
@@ -8740,11 +10210,13 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E148" t="n">
-        <v>26.35354</v>
+          <t>15K</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>15K</t>
+        </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
@@ -8768,14 +10240,22 @@
         </is>
       </c>
       <c r="K148" t="n">
+        <v>26.35354</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
         <v>26.39117</v>
       </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
+      <c r="N148" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O148" t="n">
         <v>26.38202</v>
       </c>
     </row>
@@ -8797,11 +10277,13 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E149" t="n">
-        <v>26.35354</v>
+          <t>15K</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>15K</t>
+        </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
@@ -8825,14 +10307,22 @@
         </is>
       </c>
       <c r="K149" t="n">
+        <v>26.35354</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
         <v>26.39117</v>
       </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
+      <c r="N149" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O149" t="n">
         <v>26.38202</v>
       </c>
     </row>
@@ -8854,11 +10344,13 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E150" t="n">
-        <v>26.35354</v>
+          <t>15K</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>15K</t>
+        </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
@@ -8882,14 +10374,22 @@
         </is>
       </c>
       <c r="K150" t="n">
+        <v>26.35354</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
         <v>26.39117</v>
       </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
+      <c r="N150" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O150" t="n">
         <v>26.38202</v>
       </c>
     </row>
@@ -8911,11 +10411,13 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E151" t="n">
-        <v>26.35354</v>
+          <t>15K</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>15K</t>
+        </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
@@ -8939,14 +10441,22 @@
         </is>
       </c>
       <c r="K151" t="n">
+        <v>26.35354</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
         <v>26.39117</v>
       </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
+      <c r="N151" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O151" t="n">
         <v>26.38202</v>
       </c>
     </row>
@@ -8968,11 +10478,13 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E152" t="n">
-        <v>26.35354</v>
+          <t>15K</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>15K</t>
+        </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
@@ -8996,14 +10508,22 @@
         </is>
       </c>
       <c r="K152" t="n">
+        <v>26.35354</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
         <v>26.39117</v>
       </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
+      <c r="N152" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O152" t="n">
         <v>26.38202</v>
       </c>
     </row>
@@ -9025,11 +10545,13 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E153" t="n">
-        <v>26.35354</v>
+          <t>15K</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>15K</t>
+        </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
@@ -9053,14 +10575,22 @@
         </is>
       </c>
       <c r="K153" t="n">
+        <v>26.35354</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
         <v>26.39117</v>
       </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
+      <c r="N153" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O153" t="n">
         <v>26.38202</v>
       </c>
     </row>
@@ -9082,11 +10612,13 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E154" t="n">
-        <v>26.35354</v>
+          <t>15K</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>15K</t>
+        </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
@@ -9110,14 +10642,22 @@
         </is>
       </c>
       <c r="K154" t="n">
+        <v>26.35354</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
         <v>26.39117</v>
       </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
+      <c r="N154" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O154" t="n">
         <v>26.38202</v>
       </c>
     </row>
@@ -9139,11 +10679,13 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E155" t="n">
-        <v>26.35354</v>
+          <t>15K</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>15K</t>
+        </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
@@ -9167,14 +10709,22 @@
         </is>
       </c>
       <c r="K155" t="n">
+        <v>26.35354</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
         <v>26.39117</v>
       </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
+      <c r="N155" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O155" t="n">
         <v>26.38202</v>
       </c>
     </row>
